--- a/Networks.xlsx
+++ b/Networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinliu/Desktop/Research/Charging Stattion/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FE159-D894-3342-A5AA-984E0C614E78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68CA349-FCFF-5B4D-9CBA-EB75DCAF9154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="26460" windowHeight="19200" xr2:uid="{A4E01602-0EF7-6547-8140-F976B0648AC1}"/>
+    <workbookView xWindow="5120" yWindow="460" windowWidth="26460" windowHeight="19100" xr2:uid="{A4E01602-0EF7-6547-8140-F976B0648AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand_TN" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -497,22 +497,28 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>1019</v>
+        <f>0.5*B2</f>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>966</v>
+        <f>1.5*B2</f>
+        <v>1500</v>
       </c>
       <c r="E2">
-        <v>963</v>
+        <f>1.2*B2</f>
+        <v>1200</v>
       </c>
       <c r="F2">
-        <v>1144</v>
+        <f>0.7*B2</f>
+        <v>700</v>
       </c>
       <c r="G2">
-        <v>827</v>
+        <f t="shared" ref="E2:H17" si="0">0.7*C2</f>
+        <v>350</v>
       </c>
       <c r="H2">
-        <v>974</v>
+        <f t="shared" si="0"/>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -523,22 +529,28 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>2033</v>
+        <f t="shared" ref="C3:H25" si="1">0.5*B3</f>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <v>1953</v>
+        <f t="shared" ref="D3:D25" si="2">1.5*B3</f>
+        <v>3000</v>
       </c>
       <c r="E3">
-        <v>1731</v>
+        <f t="shared" ref="E3:E25" si="3">1.2*B3</f>
+        <v>2400</v>
       </c>
       <c r="F3">
-        <v>1782</v>
+        <f t="shared" ref="F3:F25" si="4">0.7*B3</f>
+        <v>1400</v>
       </c>
       <c r="G3">
-        <v>2217</v>
+        <f t="shared" si="0"/>
+        <v>700</v>
       </c>
       <c r="H3">
-        <v>2244</v>
+        <f t="shared" si="0"/>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -549,22 +561,28 @@
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>1951</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <v>2366</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
       </c>
       <c r="E4">
-        <v>1670</v>
+        <f t="shared" si="3"/>
+        <v>2400</v>
       </c>
       <c r="F4">
-        <v>1687</v>
+        <f t="shared" si="4"/>
+        <v>1400</v>
       </c>
       <c r="G4">
-        <v>2091</v>
+        <f t="shared" si="0"/>
+        <v>700</v>
       </c>
       <c r="H4">
-        <v>1961</v>
+        <f t="shared" si="0"/>
+        <v>2100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -575,22 +593,28 @@
         <v>4000</v>
       </c>
       <c r="C5">
-        <v>4240</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="D5">
-        <v>3315</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="E5">
-        <v>3986</v>
+        <f t="shared" si="3"/>
+        <v>4800</v>
       </c>
       <c r="F5">
-        <v>3581</v>
+        <f t="shared" si="4"/>
+        <v>2800</v>
       </c>
       <c r="G5">
-        <v>4725</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="H5">
-        <v>4212</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -601,22 +625,28 @@
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>5135</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="D6">
-        <v>4811</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="E6">
-        <v>4840</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="F6">
-        <v>5480</v>
+        <f t="shared" si="4"/>
+        <v>3500</v>
       </c>
       <c r="G6">
-        <v>5600</v>
+        <f t="shared" si="0"/>
+        <v>1750</v>
       </c>
       <c r="H6">
-        <v>4837</v>
+        <f t="shared" si="0"/>
+        <v>5250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -627,22 +657,28 @@
         <v>6000</v>
       </c>
       <c r="C7">
-        <v>6825</v>
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="D7">
-        <v>7131</v>
+        <f t="shared" si="2"/>
+        <v>9000</v>
       </c>
       <c r="E7">
-        <v>4801</v>
+        <f t="shared" si="3"/>
+        <v>7200</v>
       </c>
       <c r="F7">
-        <v>6230</v>
+        <f t="shared" si="4"/>
+        <v>4200</v>
       </c>
       <c r="G7">
-        <v>4908</v>
+        <f t="shared" si="0"/>
+        <v>2100</v>
       </c>
       <c r="H7">
-        <v>5148</v>
+        <f t="shared" si="0"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -653,22 +689,28 @@
         <v>4000</v>
       </c>
       <c r="C8">
-        <v>3463</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="D8">
-        <v>4617</v>
+        <f t="shared" si="2"/>
+        <v>6000</v>
       </c>
       <c r="E8">
-        <v>3819</v>
+        <f t="shared" si="3"/>
+        <v>4800</v>
       </c>
       <c r="F8">
-        <v>3264</v>
+        <f t="shared" si="4"/>
+        <v>2800</v>
       </c>
       <c r="G8">
-        <v>3474</v>
+        <f t="shared" si="0"/>
+        <v>1400</v>
       </c>
       <c r="H8">
-        <v>4166</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -679,22 +721,28 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>11802</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="D9">
-        <v>8590</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
       <c r="E9">
-        <v>8996</v>
+        <f t="shared" si="3"/>
+        <v>12000</v>
       </c>
       <c r="F9">
-        <v>11540</v>
+        <f t="shared" si="4"/>
+        <v>7000</v>
       </c>
       <c r="G9">
-        <v>11050</v>
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="H9">
-        <v>10551</v>
+        <f t="shared" si="0"/>
+        <v>10500</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -705,22 +753,28 @@
         <v>9000</v>
       </c>
       <c r="C10">
-        <v>9360</v>
+        <f t="shared" si="1"/>
+        <v>4500</v>
       </c>
       <c r="D10">
-        <v>9960</v>
+        <f t="shared" si="2"/>
+        <v>13500</v>
       </c>
       <c r="E10">
-        <v>10452</v>
+        <f t="shared" si="3"/>
+        <v>10800</v>
       </c>
       <c r="F10">
-        <v>8292</v>
+        <f t="shared" si="4"/>
+        <v>6300</v>
       </c>
       <c r="G10">
-        <v>10046</v>
+        <f t="shared" si="0"/>
+        <v>3150</v>
       </c>
       <c r="H10">
-        <v>8422</v>
+        <f t="shared" si="0"/>
+        <v>9450</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -731,22 +785,28 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>10459</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="D11">
-        <v>11069</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
       <c r="E11">
-        <v>9674</v>
+        <f t="shared" si="3"/>
+        <v>12000</v>
       </c>
       <c r="F11">
-        <v>11403</v>
+        <f t="shared" si="4"/>
+        <v>7000</v>
       </c>
       <c r="G11">
-        <v>10566</v>
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
       <c r="H11">
-        <v>9827</v>
+        <f t="shared" si="0"/>
+        <v>10500</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -757,22 +817,28 @@
         <v>8000</v>
       </c>
       <c r="C12">
-        <v>8727</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="D12">
-        <v>8250</v>
+        <f t="shared" si="2"/>
+        <v>12000</v>
       </c>
       <c r="E12">
-        <v>6567</v>
+        <f t="shared" si="3"/>
+        <v>9600</v>
       </c>
       <c r="F12">
-        <v>7680</v>
+        <f t="shared" si="4"/>
+        <v>5600</v>
       </c>
       <c r="G12">
-        <v>8177</v>
+        <f t="shared" si="0"/>
+        <v>2800</v>
       </c>
       <c r="H12">
-        <v>8515</v>
+        <f t="shared" si="0"/>
+        <v>8400</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -783,22 +849,28 @@
         <v>6000</v>
       </c>
       <c r="C13">
-        <v>4831</v>
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="D13">
-        <v>4815</v>
+        <f t="shared" si="2"/>
+        <v>9000</v>
       </c>
       <c r="E13">
-        <v>5666</v>
+        <f t="shared" si="3"/>
+        <v>7200</v>
       </c>
       <c r="F13">
-        <v>5939</v>
+        <f t="shared" si="4"/>
+        <v>4200</v>
       </c>
       <c r="G13">
-        <v>6873</v>
+        <f t="shared" si="0"/>
+        <v>2100</v>
       </c>
       <c r="H13">
-        <v>5196</v>
+        <f t="shared" si="0"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -809,22 +881,28 @@
         <v>1000</v>
       </c>
       <c r="C14">
-        <v>1145</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
       <c r="D14">
-        <v>975</v>
+        <f t="shared" si="2"/>
+        <v>1500</v>
       </c>
       <c r="E14">
-        <v>839</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="F14">
-        <v>837</v>
+        <f t="shared" si="4"/>
+        <v>700</v>
       </c>
       <c r="G14">
-        <v>1186</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="H14">
-        <v>1158</v>
+        <f t="shared" si="0"/>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -835,22 +913,28 @@
         <v>3000</v>
       </c>
       <c r="C15">
-        <v>3160</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="D15">
-        <v>3260</v>
+        <f t="shared" si="2"/>
+        <v>4500</v>
       </c>
       <c r="E15">
-        <v>3085</v>
+        <f t="shared" si="3"/>
+        <v>3600</v>
       </c>
       <c r="F15">
-        <v>3095</v>
+        <f t="shared" si="4"/>
+        <v>2100</v>
       </c>
       <c r="G15">
-        <v>3104</v>
+        <f t="shared" si="0"/>
+        <v>1050</v>
       </c>
       <c r="H15">
-        <v>3260</v>
+        <f t="shared" si="0"/>
+        <v>3150</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -861,22 +945,28 @@
         <v>5000</v>
       </c>
       <c r="C16">
-        <v>4588</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="D16">
-        <v>4503</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="E16">
-        <v>5586</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="F16">
-        <v>5852</v>
+        <f t="shared" si="4"/>
+        <v>3500</v>
       </c>
       <c r="G16">
-        <v>5558</v>
+        <f t="shared" si="0"/>
+        <v>1750</v>
       </c>
       <c r="H16">
-        <v>4381</v>
+        <f t="shared" si="0"/>
+        <v>5250</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -887,22 +977,28 @@
         <v>12000</v>
       </c>
       <c r="C17">
-        <v>13130</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
       </c>
       <c r="D17">
-        <v>12162</v>
+        <f t="shared" si="2"/>
+        <v>18000</v>
       </c>
       <c r="E17">
-        <v>11255</v>
+        <f t="shared" si="3"/>
+        <v>14400</v>
       </c>
       <c r="F17">
-        <v>12920</v>
+        <f t="shared" si="4"/>
+        <v>8400</v>
       </c>
       <c r="G17">
-        <v>13542</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
       <c r="H17">
-        <v>10985</v>
+        <f t="shared" si="0"/>
+        <v>12600</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -913,22 +1009,28 @@
         <v>8000</v>
       </c>
       <c r="C18">
-        <v>6723</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="D18">
-        <v>7966</v>
+        <f t="shared" si="2"/>
+        <v>12000</v>
       </c>
       <c r="E18">
-        <v>8119</v>
+        <f t="shared" si="3"/>
+        <v>9600</v>
       </c>
       <c r="F18">
-        <v>7417</v>
+        <f t="shared" si="4"/>
+        <v>5600</v>
       </c>
       <c r="G18">
-        <v>9281</v>
+        <f t="shared" ref="E18:G25" si="5">0.7*C18</f>
+        <v>2800</v>
       </c>
       <c r="H18">
-        <v>7206</v>
+        <f t="shared" ref="H18:H25" si="6">0.7*D18</f>
+        <v>8400</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -939,22 +1041,28 @@
         <v>5000</v>
       </c>
       <c r="C19">
-        <v>5080</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="D19">
-        <v>4386</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="E19">
-        <v>4853</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="F19">
-        <v>4039</v>
+        <f t="shared" si="4"/>
+        <v>3500</v>
       </c>
       <c r="G19">
-        <v>5627</v>
+        <f t="shared" si="5"/>
+        <v>1750</v>
       </c>
       <c r="H19">
-        <v>4546</v>
+        <f t="shared" si="6"/>
+        <v>5250</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -965,22 +1073,28 @@
         <v>5000</v>
       </c>
       <c r="C20">
-        <v>4834</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="D20">
-        <v>4973</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="E20">
-        <v>5438</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="F20">
-        <v>4523</v>
+        <f t="shared" si="4"/>
+        <v>3500</v>
       </c>
       <c r="G20">
-        <v>5296</v>
+        <f t="shared" si="5"/>
+        <v>1750</v>
       </c>
       <c r="H20">
-        <v>5642</v>
+        <f t="shared" si="6"/>
+        <v>5250</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -991,22 +1105,28 @@
         <v>8000</v>
       </c>
       <c r="C21">
-        <v>9254</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="D21">
-        <v>6933</v>
+        <f t="shared" si="2"/>
+        <v>12000</v>
       </c>
       <c r="E21">
-        <v>8338</v>
+        <f t="shared" si="3"/>
+        <v>9600</v>
       </c>
       <c r="F21">
-        <v>8510</v>
+        <f t="shared" si="4"/>
+        <v>5600</v>
       </c>
       <c r="G21">
-        <v>9036</v>
+        <f t="shared" si="5"/>
+        <v>2800</v>
       </c>
       <c r="H21">
-        <v>9200</v>
+        <f t="shared" si="6"/>
+        <v>8400</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1017,22 +1137,28 @@
         <v>8000</v>
       </c>
       <c r="C22">
-        <v>7290</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
       <c r="D22">
-        <v>7999</v>
+        <f t="shared" si="2"/>
+        <v>12000</v>
       </c>
       <c r="E22">
-        <v>8150</v>
+        <f t="shared" si="3"/>
+        <v>9600</v>
       </c>
       <c r="F22">
-        <v>7838</v>
+        <f t="shared" si="4"/>
+        <v>5600</v>
       </c>
       <c r="G22">
-        <v>6558</v>
+        <f t="shared" si="5"/>
+        <v>2800</v>
       </c>
       <c r="H22">
-        <v>7580</v>
+        <f t="shared" si="6"/>
+        <v>8400</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1043,22 +1169,28 @@
         <v>10000</v>
       </c>
       <c r="C23">
-        <v>11312</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="D23">
-        <v>10030</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
       <c r="E23">
-        <v>11716</v>
+        <f t="shared" si="3"/>
+        <v>12000</v>
       </c>
       <c r="F23">
-        <v>8382</v>
+        <f t="shared" si="4"/>
+        <v>7000</v>
       </c>
       <c r="G23">
-        <v>10028</v>
+        <f t="shared" si="5"/>
+        <v>3500</v>
       </c>
       <c r="H23">
-        <v>8347</v>
+        <f t="shared" si="6"/>
+        <v>10500</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1069,22 +1201,28 @@
         <v>6000</v>
       </c>
       <c r="C24">
-        <v>5047</v>
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="D24">
-        <v>6076</v>
+        <f t="shared" si="2"/>
+        <v>9000</v>
       </c>
       <c r="E24">
-        <v>6553</v>
+        <f t="shared" si="3"/>
+        <v>7200</v>
       </c>
       <c r="F24">
-        <v>7005</v>
+        <f t="shared" si="4"/>
+        <v>4200</v>
       </c>
       <c r="G24">
-        <v>6435</v>
+        <f t="shared" si="5"/>
+        <v>2100</v>
       </c>
       <c r="H24">
-        <v>5652</v>
+        <f t="shared" si="6"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1095,22 +1233,28 @@
         <v>5000</v>
       </c>
       <c r="C25">
-        <v>4037</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
       <c r="D25">
-        <v>5814</v>
+        <f t="shared" si="2"/>
+        <v>7500</v>
       </c>
       <c r="E25">
-        <v>5588</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
       <c r="F25">
-        <v>4325</v>
+        <f t="shared" si="4"/>
+        <v>3500</v>
       </c>
       <c r="G25">
-        <v>4249</v>
+        <f t="shared" si="5"/>
+        <v>1750</v>
       </c>
       <c r="H25">
-        <v>5247</v>
+        <f t="shared" si="6"/>
+        <v>5250</v>
       </c>
     </row>
   </sheetData>
